--- a/original-sources/county_classifications.xlsx
+++ b/original-sources/county_classifications.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffb\Desktop\Life\personal-projects\COVID\original-sources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA61E62C-828F-4134-B194-EF9D79C27DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="11505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Definitions" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Definitions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Title">Sheet1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="385">
   <si>
     <t>4/5N</t>
   </si>
@@ -1136,9 +1143,6 @@
     <t>Metro</t>
   </si>
   <si>
-    <t>Back to CHS Useful Information</t>
-  </si>
-  <si>
     <t>Metro Area (82)</t>
   </si>
   <si>
@@ -1160,19 +1164,34 @@
     <t>Health Service Region (8)</t>
   </si>
   <si>
-    <t>End of Worksheet</t>
+    <t>San Antonio &amp; Harlingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Paso &amp; Midwest Texas </t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>HHSC Region</t>
+  </si>
+  <si>
+    <t>HHSC Region Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,6 +1210,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1213,20 +1233,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1269,16 +1275,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1320,23 +1325,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Currency 2" xfId="3"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Percent 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1385,7 +1390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,9 +1423,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,6 +1475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1628,12 +1667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="5" customWidth="1"/>
@@ -1646,12 +1687,10 @@
     <col min="9" max="10" width="17.140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="6" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="6"/>
-    <col min="14" max="14" width="9.140625" style="6" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>85</v>
       </c>
@@ -1665,7 +1704,7 @@
         <v>86</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>339</v>
@@ -1674,13 +1713,13 @@
         <v>353</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>375</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>376</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>347</v>
@@ -1688,8 +1727,14 @@
       <c r="L1" s="16" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -1726,8 +1771,14 @@
       <c r="L2" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
@@ -1764,8 +1815,14 @@
       <c r="L3" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
@@ -1802,8 +1859,14 @@
       <c r="L4" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
@@ -1840,8 +1903,14 @@
       <c r="L5" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
@@ -1878,8 +1947,14 @@
       <c r="L6" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
@@ -1916,8 +1991,14 @@
       <c r="L7" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -1954,8 +2035,14 @@
       <c r="L8" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -1969,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>17</v>
@@ -1992,8 +2079,14 @@
       <c r="L9" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
@@ -2022,7 +2115,7 @@
         <v>345</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>348</v>
@@ -2030,8 +2123,14 @@
       <c r="L10" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2068,8 +2167,14 @@
       <c r="L11" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2106,8 +2211,14 @@
       <c r="L12" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -2136,7 +2247,7 @@
         <v>345</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>348</v>
@@ -2144,8 +2255,14 @@
       <c r="L13" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>101</v>
       </c>
@@ -2182,8 +2299,14 @@
       <c r="L14" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
@@ -2220,8 +2343,14 @@
       <c r="L15" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
@@ -2258,8 +2387,14 @@
       <c r="L16" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
@@ -2288,7 +2423,7 @@
         <v>345</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>348</v>
@@ -2296,8 +2431,14 @@
       <c r="L17" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -2326,7 +2467,7 @@
         <v>345</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>348</v>
@@ -2334,8 +2475,14 @@
       <c r="L18" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -2364,7 +2511,7 @@
         <v>345</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>348</v>
@@ -2372,8 +2519,14 @@
       <c r="L19" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>107</v>
       </c>
@@ -2410,8 +2563,14 @@
       <c r="L20" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
@@ -2425,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>17</v>
@@ -2448,8 +2607,14 @@
       <c r="L21" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
@@ -2486,8 +2651,14 @@
       <c r="L22" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>110</v>
       </c>
@@ -2516,7 +2687,7 @@
         <v>345</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>349</v>
@@ -2524,8 +2695,14 @@
       <c r="L23" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -2554,7 +2731,7 @@
         <v>345</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>348</v>
@@ -2562,8 +2739,14 @@
       <c r="L24" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
@@ -2592,7 +2775,7 @@
         <v>345</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>349</v>
@@ -2600,8 +2783,14 @@
       <c r="L25" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>113</v>
       </c>
@@ -2638,8 +2827,14 @@
       <c r="L26" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>114</v>
       </c>
@@ -2676,8 +2871,14 @@
       <c r="L27" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>115</v>
       </c>
@@ -2706,7 +2907,7 @@
         <v>345</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>348</v>
@@ -2714,8 +2915,14 @@
       <c r="L28" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
@@ -2752,8 +2959,14 @@
       <c r="L29" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>117</v>
       </c>
@@ -2790,8 +3003,14 @@
       <c r="L30" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>118</v>
       </c>
@@ -2828,8 +3047,14 @@
       <c r="L31" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
@@ -2866,8 +3091,14 @@
       <c r="L32" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>120</v>
       </c>
@@ -2896,7 +3127,7 @@
         <v>345</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>348</v>
@@ -2904,8 +3135,14 @@
       <c r="L33" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>121</v>
       </c>
@@ -2942,8 +3179,14 @@
       <c r="L34" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>122</v>
       </c>
@@ -2972,7 +3215,7 @@
         <v>345</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>348</v>
@@ -2980,8 +3223,14 @@
       <c r="L35" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>123</v>
       </c>
@@ -3010,7 +3259,7 @@
         <v>345</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>348</v>
@@ -3018,8 +3267,14 @@
       <c r="L36" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
@@ -3033,7 +3288,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>17</v>
@@ -3056,8 +3311,14 @@
       <c r="L37" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -3094,8 +3355,14 @@
       <c r="L38" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>126</v>
       </c>
@@ -3124,7 +3391,7 @@
         <v>345</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>348</v>
@@ -3132,8 +3399,14 @@
       <c r="L39" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>127</v>
       </c>
@@ -3170,8 +3443,14 @@
       <c r="L40" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>128</v>
       </c>
@@ -3200,7 +3479,7 @@
         <v>345</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>348</v>
@@ -3208,8 +3487,14 @@
       <c r="L41" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
@@ -3238,7 +3523,7 @@
         <v>345</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>348</v>
@@ -3246,8 +3531,14 @@
       <c r="L42" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
@@ -3276,7 +3567,7 @@
         <v>345</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>348</v>
@@ -3284,8 +3575,14 @@
       <c r="L43" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>131</v>
       </c>
@@ -3322,8 +3619,14 @@
       <c r="L44" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>132</v>
       </c>
@@ -3352,7 +3655,7 @@
         <v>345</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>348</v>
@@ -3360,8 +3663,14 @@
       <c r="L45" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>133</v>
       </c>
@@ -3375,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>32</v>
@@ -3390,7 +3699,7 @@
         <v>345</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>348</v>
@@ -3398,8 +3707,14 @@
       <c r="L46" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>6</v>
+      </c>
+      <c r="N46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -3436,8 +3751,14 @@
       <c r="L47" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>7</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>135</v>
       </c>
@@ -3466,7 +3787,7 @@
         <v>345</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>348</v>
@@ -3474,8 +3795,14 @@
       <c r="L48" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>136</v>
       </c>
@@ -3504,7 +3831,7 @@
         <v>345</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>348</v>
@@ -3512,8 +3839,14 @@
       <c r="L49" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>137</v>
       </c>
@@ -3550,8 +3883,14 @@
       <c r="L50" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>138</v>
       </c>
@@ -3588,8 +3927,14 @@
       <c r="L51" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>139</v>
       </c>
@@ -3618,7 +3963,7 @@
         <v>345</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>348</v>
@@ -3626,8 +3971,14 @@
       <c r="L52" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>140</v>
       </c>
@@ -3656,7 +4007,7 @@
         <v>345</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>348</v>
@@ -3664,8 +4015,14 @@
       <c r="L53" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
@@ -3694,7 +4051,7 @@
         <v>345</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>349</v>
@@ -3702,8 +4059,14 @@
       <c r="L54" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>142</v>
       </c>
@@ -3740,8 +4103,14 @@
       <c r="L55" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>143</v>
       </c>
@@ -3770,7 +4139,7 @@
         <v>345</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>349</v>
@@ -3778,8 +4147,14 @@
       <c r="L56" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>144</v>
       </c>
@@ -3808,7 +4183,7 @@
         <v>345</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>348</v>
@@ -3816,8 +4191,14 @@
       <c r="L57" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>145</v>
       </c>
@@ -3854,8 +4235,14 @@
       <c r="L58" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>146</v>
       </c>
@@ -3892,8 +4279,14 @@
       <c r="L59" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>147</v>
       </c>
@@ -3930,8 +4323,14 @@
       <c r="L60" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>148</v>
       </c>
@@ -3960,7 +4359,7 @@
         <v>341</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>348</v>
@@ -3968,8 +4367,14 @@
       <c r="L61" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>149</v>
       </c>
@@ -4006,8 +4411,14 @@
       <c r="L62" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>150</v>
       </c>
@@ -4036,7 +4447,7 @@
         <v>345</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>348</v>
@@ -4044,8 +4455,14 @@
       <c r="L63" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>7</v>
+      </c>
+      <c r="N63" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>151</v>
       </c>
@@ -4074,7 +4491,7 @@
         <v>345</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>348</v>
@@ -4082,8 +4499,14 @@
       <c r="L64" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>152</v>
       </c>
@@ -4112,7 +4535,7 @@
         <v>345</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>349</v>
@@ -4120,8 +4543,14 @@
       <c r="L65" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>153</v>
       </c>
@@ -4150,7 +4579,7 @@
         <v>345</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>348</v>
@@ -4158,8 +4587,14 @@
       <c r="L66" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4188,7 +4623,7 @@
         <v>345</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>349</v>
@@ -4196,8 +4631,14 @@
       <c r="L67" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>7</v>
+      </c>
+      <c r="N67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>155</v>
       </c>
@@ -4226,7 +4667,7 @@
         <v>345</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>348</v>
@@ -4234,8 +4675,14 @@
       <c r="L68" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>156</v>
       </c>
@@ -4272,8 +4719,14 @@
       <c r="L69" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>157</v>
       </c>
@@ -4302,7 +4755,7 @@
         <v>345</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>349</v>
@@ -4310,84 +4763,102 @@
       <c r="L70" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>7</v>
+      </c>
+      <c r="N70" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="B71" s="5">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D71" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>371</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B72" s="5">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C72" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>371</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>159</v>
       </c>
@@ -4424,8 +4895,14 @@
       <c r="L73" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>160</v>
       </c>
@@ -4462,8 +4939,14 @@
       <c r="L74" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>161</v>
       </c>
@@ -4492,7 +4975,7 @@
         <v>344</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>348</v>
@@ -4500,8 +4983,14 @@
       <c r="L75" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>162</v>
       </c>
@@ -4530,7 +5019,7 @@
         <v>345</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>348</v>
@@ -4538,8 +5027,14 @@
       <c r="L76" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>163</v>
       </c>
@@ -4568,7 +5063,7 @@
         <v>345</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>348</v>
@@ -4576,8 +5071,14 @@
       <c r="L77" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>164</v>
       </c>
@@ -4606,7 +5107,7 @@
         <v>345</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>348</v>
@@ -4614,8 +5115,14 @@
       <c r="L78" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>165</v>
       </c>
@@ -4644,7 +5151,7 @@
         <v>345</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>348</v>
@@ -4652,8 +5159,14 @@
       <c r="L79" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>166</v>
       </c>
@@ -4667,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>17</v>
@@ -4690,8 +5203,14 @@
       <c r="L80" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>167</v>
       </c>
@@ -4720,7 +5239,7 @@
         <v>345</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>348</v>
@@ -4728,8 +5247,14 @@
       <c r="L81" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>168</v>
       </c>
@@ -4758,7 +5283,7 @@
         <v>345</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>348</v>
@@ -4766,8 +5291,14 @@
       <c r="L82" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>169</v>
       </c>
@@ -4796,7 +5327,7 @@
         <v>345</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>349</v>
@@ -4804,8 +5335,14 @@
       <c r="L83" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>7</v>
+      </c>
+      <c r="N83" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>170</v>
       </c>
@@ -4834,7 +5371,7 @@
         <v>345</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>348</v>
@@ -4842,8 +5379,14 @@
       <c r="L84" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
@@ -4857,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>17</v>
@@ -4880,8 +5423,14 @@
       <c r="L85" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>6</v>
+      </c>
+      <c r="N85" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>172</v>
       </c>
@@ -4910,7 +5459,7 @@
         <v>345</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>348</v>
@@ -4918,8 +5467,14 @@
       <c r="L86" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>173</v>
       </c>
@@ -4956,8 +5511,14 @@
       <c r="L87" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>7</v>
+      </c>
+      <c r="N87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>174</v>
       </c>
@@ -4994,8 +5555,14 @@
       <c r="L88" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>175</v>
       </c>
@@ -5032,8 +5599,14 @@
       <c r="L89" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>7</v>
+      </c>
+      <c r="N89" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>176</v>
       </c>
@@ -5062,7 +5635,7 @@
         <v>345</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>348</v>
@@ -5070,8 +5643,14 @@
       <c r="L90" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>7</v>
+      </c>
+      <c r="N90" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>177</v>
       </c>
@@ -5108,8 +5687,14 @@
       <c r="L91" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>178</v>
       </c>
@@ -5146,8 +5731,14 @@
       <c r="L92" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>179</v>
       </c>
@@ -5184,8 +5775,14 @@
       <c r="L93" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>180</v>
       </c>
@@ -5214,7 +5811,7 @@
         <v>345</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>348</v>
@@ -5222,8 +5819,14 @@
       <c r="L94" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>181</v>
       </c>
@@ -5260,8 +5863,14 @@
       <c r="L95" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <v>7</v>
+      </c>
+      <c r="N95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>182</v>
       </c>
@@ -5298,8 +5907,14 @@
       <c r="L96" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>183</v>
       </c>
@@ -5328,7 +5943,7 @@
         <v>345</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>348</v>
@@ -5336,8 +5951,14 @@
       <c r="L97" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>184</v>
       </c>
@@ -5366,7 +5987,7 @@
         <v>345</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>348</v>
@@ -5374,8 +5995,14 @@
       <c r="L98" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>185</v>
       </c>
@@ -5404,7 +6031,7 @@
         <v>345</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>348</v>
@@ -5412,8 +6039,14 @@
       <c r="L99" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>186</v>
       </c>
@@ -5442,7 +6075,7 @@
         <v>345</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>348</v>
@@ -5450,8 +6083,14 @@
       <c r="L100" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>187</v>
       </c>
@@ -5465,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>10</v>
@@ -5488,8 +6127,14 @@
       <c r="L101" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>188</v>
       </c>
@@ -5503,7 +6148,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>17</v>
@@ -5526,8 +6171,14 @@
       <c r="L102" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>6</v>
+      </c>
+      <c r="N102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>189</v>
       </c>
@@ -5564,8 +6215,14 @@
       <c r="L103" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>190</v>
       </c>
@@ -5594,7 +6251,7 @@
         <v>345</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>348</v>
@@ -5602,8 +6259,14 @@
       <c r="L104" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>191</v>
       </c>
@@ -5632,7 +6295,7 @@
         <v>345</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>348</v>
@@ -5640,8 +6303,14 @@
       <c r="L105" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>192</v>
       </c>
@@ -5678,8 +6347,14 @@
       <c r="L106" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>193</v>
       </c>
@@ -5708,7 +6383,7 @@
         <v>345</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>348</v>
@@ -5716,8 +6391,14 @@
       <c r="L107" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>194</v>
       </c>
@@ -5754,8 +6435,14 @@
       <c r="L108" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>195</v>
       </c>
@@ -5792,8 +6479,14 @@
       <c r="L109" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>7</v>
+      </c>
+      <c r="N109" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>196</v>
       </c>
@@ -5822,7 +6515,7 @@
         <v>345</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>348</v>
@@ -5830,8 +6523,14 @@
       <c r="L110" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>197</v>
       </c>
@@ -5868,8 +6567,14 @@
       <c r="L111" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>198</v>
       </c>
@@ -5906,8 +6611,14 @@
       <c r="L112" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>199</v>
       </c>
@@ -5944,8 +6655,14 @@
       <c r="L113" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>200</v>
       </c>
@@ -5974,7 +6691,7 @@
         <v>345</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>348</v>
@@ -5982,8 +6699,14 @@
       <c r="L114" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>201</v>
       </c>
@@ -6020,8 +6743,14 @@
       <c r="L115" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>202</v>
       </c>
@@ -6058,8 +6787,14 @@
       <c r="L116" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>203</v>
       </c>
@@ -6096,8 +6831,14 @@
       <c r="L117" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>204</v>
       </c>
@@ -6134,8 +6875,14 @@
       <c r="L118" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>205</v>
       </c>
@@ -6172,8 +6919,14 @@
       <c r="L119" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>206</v>
       </c>
@@ -6202,7 +6955,7 @@
         <v>345</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>348</v>
@@ -6210,8 +6963,14 @@
       <c r="L120" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>207</v>
       </c>
@@ -6240,7 +6999,7 @@
         <v>345</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>348</v>
@@ -6248,8 +7007,14 @@
       <c r="L121" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <v>7</v>
+      </c>
+      <c r="N121" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>208</v>
       </c>
@@ -6278,7 +7043,7 @@
         <v>345</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>348</v>
@@ -6286,8 +7051,14 @@
       <c r="L122" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <v>4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>209</v>
       </c>
@@ -6316,7 +7087,7 @@
         <v>345</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>349</v>
@@ -6324,8 +7095,14 @@
       <c r="L123" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>210</v>
       </c>
@@ -6339,7 +7116,7 @@
         <v>5</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>10</v>
@@ -6362,8 +7139,14 @@
       <c r="L124" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>211</v>
       </c>
@@ -6392,7 +7175,7 @@
         <v>345</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>349</v>
@@ -6400,8 +7183,14 @@
       <c r="L125" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>7</v>
+      </c>
+      <c r="N125" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>212</v>
       </c>
@@ -6438,8 +7227,14 @@
       <c r="L126" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <v>7</v>
+      </c>
+      <c r="N126" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>213</v>
       </c>
@@ -6476,8 +7271,14 @@
       <c r="L127" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127">
+        <v>5</v>
+      </c>
+      <c r="N127" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>214</v>
       </c>
@@ -6514,8 +7315,14 @@
       <c r="L128" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>215</v>
       </c>
@@ -6544,7 +7351,7 @@
         <v>345</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>348</v>
@@ -6552,8 +7359,14 @@
       <c r="L129" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <v>7</v>
+      </c>
+      <c r="N129" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>216</v>
       </c>
@@ -6590,8 +7403,14 @@
       <c r="L130" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>217</v>
       </c>
@@ -6628,8 +7447,14 @@
       <c r="L131" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131">
+        <v>7</v>
+      </c>
+      <c r="N131" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>218</v>
       </c>
@@ -6666,8 +7491,14 @@
       <c r="L132" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132">
+        <v>7</v>
+      </c>
+      <c r="N132" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>219</v>
       </c>
@@ -6696,7 +7527,7 @@
         <v>345</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>348</v>
@@ -6704,8 +7535,14 @@
       <c r="L133" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>220</v>
       </c>
@@ -6742,8 +7579,14 @@
       <c r="L134" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <v>7</v>
+      </c>
+      <c r="N134" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>221</v>
       </c>
@@ -6772,7 +7615,7 @@
         <v>345</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>348</v>
@@ -6780,8 +7623,14 @@
       <c r="L135" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>222</v>
       </c>
@@ -6810,7 +7659,7 @@
         <v>345</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>348</v>
@@ -6818,8 +7667,14 @@
       <c r="L136" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>223</v>
       </c>
@@ -6848,7 +7703,7 @@
         <v>345</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>349</v>
@@ -6856,8 +7711,14 @@
       <c r="L137" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <v>7</v>
+      </c>
+      <c r="N137" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>224</v>
       </c>
@@ -6894,8 +7755,14 @@
       <c r="L138" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <v>7</v>
+      </c>
+      <c r="N138" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>225</v>
       </c>
@@ -6924,7 +7791,7 @@
         <v>345</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K139" s="6" t="s">
         <v>348</v>
@@ -6932,160 +7799,190 @@
       <c r="L139" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" s="5">
+        <v>283</v>
+      </c>
+      <c r="C140" s="2">
+        <v>142</v>
+      </c>
+      <c r="D140" s="4">
+        <v>8</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M140">
+        <v>7</v>
+      </c>
+      <c r="N140" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B141" s="5">
         <v>277</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C141" s="2">
         <v>139</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D141" s="4">
         <v>4</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E141" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I140" s="6" t="s">
+      <c r="F141" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I141" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="J140" s="6" t="s">
+      <c r="J141" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="K140" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+      <c r="K141" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+      <c r="N141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B142" s="5">
         <v>279</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C142" s="2">
         <v>140</v>
       </c>
-      <c r="D141" s="4">
-        <v>1</v>
-      </c>
-      <c r="E141" s="7" t="s">
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K141" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L141" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+      <c r="F142" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B143" s="5">
         <v>281</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C143" s="2">
         <v>141</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D143" s="4">
         <v>7</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E143" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F143" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" s="4" t="s">
+      <c r="G143" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I142" s="6" t="s">
+      <c r="I143" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="J142" s="6" t="s">
+      <c r="J143" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K142" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L142" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B143" s="5">
-        <v>283</v>
-      </c>
-      <c r="C143" s="2">
-        <v>142</v>
-      </c>
-      <c r="D143" s="4">
-        <v>8</v>
-      </c>
-      <c r="E143" s="7" t="s">
+      <c r="K143" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M143">
         <v>5</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K143" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="L143" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N143" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>230</v>
       </c>
@@ -7114,7 +8011,7 @@
         <v>345</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>348</v>
@@ -7122,8 +8019,14 @@
       <c r="L144" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144">
+        <v>7</v>
+      </c>
+      <c r="N144" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>231</v>
       </c>
@@ -7152,7 +8055,7 @@
         <v>345</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>348</v>
@@ -7160,8 +8063,14 @@
       <c r="L145" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>232</v>
       </c>
@@ -7190,7 +8099,7 @@
         <v>345</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K146" s="6" t="s">
         <v>348</v>
@@ -7198,8 +8107,14 @@
       <c r="L146" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>233</v>
       </c>
@@ -7213,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>17</v>
@@ -7236,8 +8151,14 @@
       <c r="L147" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>234</v>
       </c>
@@ -7266,7 +8187,7 @@
         <v>345</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K148" s="6" t="s">
         <v>348</v>
@@ -7274,8 +8195,14 @@
       <c r="L148" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <v>5</v>
+      </c>
+      <c r="N148" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>235</v>
       </c>
@@ -7304,7 +8231,7 @@
         <v>345</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K149" s="6" t="s">
         <v>348</v>
@@ -7312,8 +8239,14 @@
       <c r="L149" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>236</v>
       </c>
@@ -7342,7 +8275,7 @@
         <v>345</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K150" s="6" t="s">
         <v>348</v>
@@ -7350,8 +8283,14 @@
       <c r="L150" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <v>7</v>
+      </c>
+      <c r="N150" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>237</v>
       </c>
@@ -7380,7 +8319,7 @@
         <v>345</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K151" s="6" t="s">
         <v>348</v>
@@ -7388,8 +8327,14 @@
       <c r="L151" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>238</v>
       </c>
@@ -7418,7 +8363,7 @@
         <v>345</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>348</v>
@@ -7426,8 +8371,14 @@
       <c r="L152" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>20</v>
       </c>
@@ -7464,8 +8415,14 @@
       <c r="L153" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>239</v>
       </c>
@@ -7502,244 +8459,286 @@
       <c r="L154" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B155" s="5">
+        <v>313</v>
+      </c>
+      <c r="C155" s="2">
+        <v>157</v>
+      </c>
+      <c r="D155" s="4">
+        <v>7</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B156" s="5">
+        <v>315</v>
+      </c>
+      <c r="C156" s="2">
+        <v>158</v>
+      </c>
+      <c r="D156" s="4">
+        <v>4</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L156" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M156">
+        <v>4</v>
+      </c>
+      <c r="N156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" s="5">
+        <v>317</v>
+      </c>
+      <c r="C157" s="2">
+        <v>159</v>
+      </c>
+      <c r="D157" s="4">
+        <v>9</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L157" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B158" s="5">
+        <v>319</v>
+      </c>
+      <c r="C158" s="2">
+        <v>160</v>
+      </c>
+      <c r="D158" s="4">
+        <v>9</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B159" s="5">
+        <v>321</v>
+      </c>
+      <c r="C159" s="2">
+        <v>161</v>
+      </c>
+      <c r="D159" s="4">
+        <v>6</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M159">
+        <v>6</v>
+      </c>
+      <c r="N159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B160" s="5">
+        <v>323</v>
+      </c>
+      <c r="C160" s="2">
+        <v>162</v>
+      </c>
+      <c r="D160" s="4">
+        <v>8</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="M160">
+        <v>7</v>
+      </c>
+      <c r="N160" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B161" s="5">
         <v>307</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C161" s="2">
         <v>154</v>
-      </c>
-      <c r="D155" s="4">
-        <v>9</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L155" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B156" s="5">
-        <v>309</v>
-      </c>
-      <c r="C156" s="2">
-        <v>155</v>
-      </c>
-      <c r="D156" s="4">
-        <v>7</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L156" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B157" s="5">
-        <v>311</v>
-      </c>
-      <c r="C157" s="2">
-        <v>156</v>
-      </c>
-      <c r="D157" s="4">
-        <v>11</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K157" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="L157" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B158" s="5">
-        <v>313</v>
-      </c>
-      <c r="C158" s="2">
-        <v>157</v>
-      </c>
-      <c r="D158" s="4">
-        <v>7</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K158" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L158" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B159" s="5">
-        <v>315</v>
-      </c>
-      <c r="C159" s="2">
-        <v>158</v>
-      </c>
-      <c r="D159" s="4">
-        <v>4</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K159" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L159" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B160" s="5">
-        <v>317</v>
-      </c>
-      <c r="C160" s="2">
-        <v>159</v>
-      </c>
-      <c r="D160" s="4">
-        <v>9</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K160" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L160" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B161" s="5">
-        <v>319</v>
-      </c>
-      <c r="C161" s="2">
-        <v>160</v>
       </c>
       <c r="D161" s="4">
         <v>9</v>
@@ -7760,7 +8759,7 @@
         <v>345</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K161" s="6" t="s">
         <v>348</v>
@@ -7768,37 +8767,43 @@
       <c r="L161" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B162" s="5">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C162" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D162" s="4">
+        <v>7</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="F162" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>348</v>
@@ -7806,22 +8811,28 @@
       <c r="L162" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162">
+        <v>5</v>
+      </c>
+      <c r="N162" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B163" s="5">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C163" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D163" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>32</v>
@@ -7833,19 +8844,25 @@
         <v>370</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="K163" s="6" t="s">
         <v>349</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="M163">
+        <v>7</v>
+      </c>
+      <c r="N163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>249</v>
       </c>
@@ -7882,8 +8899,14 @@
       <c r="L164" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164">
+        <v>7</v>
+      </c>
+      <c r="N164" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>250</v>
       </c>
@@ -7912,7 +8935,7 @@
         <v>345</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K165" s="6" t="s">
         <v>348</v>
@@ -7920,8 +8943,14 @@
       <c r="L165" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>22</v>
       </c>
@@ -7958,8 +8987,14 @@
       <c r="L166" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>251</v>
       </c>
@@ -7988,7 +9023,7 @@
         <v>345</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K167" s="6" t="s">
         <v>348</v>
@@ -7996,8 +9031,14 @@
       <c r="L167" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>252</v>
       </c>
@@ -8026,7 +9067,7 @@
         <v>345</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K168" s="6" t="s">
         <v>348</v>
@@ -8034,8 +9075,14 @@
       <c r="L168" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>253</v>
       </c>
@@ -8064,7 +9111,7 @@
         <v>345</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K169" s="6" t="s">
         <v>348</v>
@@ -8072,8 +9119,14 @@
       <c r="L169" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>254</v>
       </c>
@@ -8102,7 +9155,7 @@
         <v>345</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K170" s="6" t="s">
         <v>348</v>
@@ -8110,8 +9163,14 @@
       <c r="L170" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>255</v>
       </c>
@@ -8125,7 +9184,7 @@
         <v>6</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>17</v>
@@ -8148,8 +9207,14 @@
       <c r="L171" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>256</v>
       </c>
@@ -8186,8 +9251,14 @@
       <c r="L172" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>257</v>
       </c>
@@ -8216,7 +9287,7 @@
         <v>345</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K173" s="6" t="s">
         <v>348</v>
@@ -8224,8 +9295,14 @@
       <c r="L173" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173">
+        <v>4</v>
+      </c>
+      <c r="N173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>258</v>
       </c>
@@ -8254,7 +9331,7 @@
         <v>345</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K174" s="6" t="s">
         <v>348</v>
@@ -8262,8 +9339,14 @@
       <c r="L174" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>259</v>
       </c>
@@ -8300,8 +9383,14 @@
       <c r="L175" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175">
+        <v>4</v>
+      </c>
+      <c r="N175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>260</v>
       </c>
@@ -8338,8 +9427,14 @@
       <c r="L176" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176">
+        <v>5</v>
+      </c>
+      <c r="N176" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>261</v>
       </c>
@@ -8376,8 +9471,14 @@
       <c r="L177" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177">
+        <v>4</v>
+      </c>
+      <c r="N177" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>262</v>
       </c>
@@ -8414,8 +9515,14 @@
       <c r="L178" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>263</v>
       </c>
@@ -8452,8 +9559,14 @@
       <c r="L179" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179">
+        <v>7</v>
+      </c>
+      <c r="N179" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>264</v>
       </c>
@@ -8482,7 +9595,7 @@
         <v>345</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K180" s="6" t="s">
         <v>348</v>
@@ -8490,8 +9603,14 @@
       <c r="L180" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>265</v>
       </c>
@@ -8528,8 +9647,14 @@
       <c r="L181" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>266</v>
       </c>
@@ -8543,7 +9668,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>10</v>
@@ -8566,8 +9691,14 @@
       <c r="L182" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182">
+        <v>4</v>
+      </c>
+      <c r="N182" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>267</v>
       </c>
@@ -8604,8 +9735,14 @@
       <c r="L183" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>268</v>
       </c>
@@ -8634,7 +9771,7 @@
         <v>345</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K184" s="6" t="s">
         <v>348</v>
@@ -8642,8 +9779,14 @@
       <c r="L184" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184">
+        <v>4</v>
+      </c>
+      <c r="N184" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>269</v>
       </c>
@@ -8680,8 +9823,14 @@
       <c r="L185" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>270</v>
       </c>
@@ -8710,7 +9859,7 @@
         <v>345</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K186" s="6" t="s">
         <v>348</v>
@@ -8718,8 +9867,14 @@
       <c r="L186" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>271</v>
       </c>
@@ -8748,7 +9903,7 @@
         <v>345</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K187" s="6" t="s">
         <v>349</v>
@@ -8756,8 +9911,14 @@
       <c r="L187" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>272</v>
       </c>
@@ -8786,7 +9947,7 @@
         <v>345</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K188" s="6" t="s">
         <v>348</v>
@@ -8794,8 +9955,14 @@
       <c r="L188" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188">
+        <v>4</v>
+      </c>
+      <c r="N188" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>273</v>
       </c>
@@ -8832,8 +9999,14 @@
       <c r="L189" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>274</v>
       </c>
@@ -8862,7 +10035,7 @@
         <v>345</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K190" s="6" t="s">
         <v>349</v>
@@ -8870,8 +10043,14 @@
       <c r="L190" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>275</v>
       </c>
@@ -8900,7 +10079,7 @@
         <v>345</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K191" s="6" t="s">
         <v>348</v>
@@ -8908,8 +10087,14 @@
       <c r="L191" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <v>4</v>
+      </c>
+      <c r="N191" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>276</v>
       </c>
@@ -8946,8 +10131,14 @@
       <c r="L192" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>277</v>
       </c>
@@ -8976,7 +10167,7 @@
         <v>345</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K193" s="6" t="s">
         <v>348</v>
@@ -8984,8 +10175,14 @@
       <c r="L193" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>278</v>
       </c>
@@ -9014,7 +10211,7 @@
         <v>345</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K194" s="6" t="s">
         <v>349</v>
@@ -9022,8 +10219,14 @@
       <c r="L194" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <v>7</v>
+      </c>
+      <c r="N194" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>279</v>
       </c>
@@ -9052,7 +10255,7 @@
         <v>345</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K195" s="6" t="s">
         <v>348</v>
@@ -9060,8 +10263,14 @@
       <c r="L195" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>280</v>
       </c>
@@ -9098,8 +10307,14 @@
       <c r="L196" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>281</v>
       </c>
@@ -9128,7 +10343,7 @@
         <v>345</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K197" s="6" t="s">
         <v>348</v>
@@ -9136,8 +10351,14 @@
       <c r="L197" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197">
+        <v>7</v>
+      </c>
+      <c r="N197" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>282</v>
       </c>
@@ -9166,7 +10387,7 @@
         <v>344</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K198" s="6" t="s">
         <v>348</v>
@@ -9174,8 +10395,14 @@
       <c r="L198" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>283</v>
       </c>
@@ -9212,8 +10439,14 @@
       <c r="L199" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199">
+        <v>5</v>
+      </c>
+      <c r="N199" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>284</v>
       </c>
@@ -9250,8 +10483,14 @@
       <c r="L200" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>285</v>
       </c>
@@ -9280,7 +10519,7 @@
         <v>345</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K201" s="6" t="s">
         <v>348</v>
@@ -9288,8 +10527,14 @@
       <c r="L201" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>286</v>
       </c>
@@ -9326,8 +10571,14 @@
       <c r="L202" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202">
+        <v>4</v>
+      </c>
+      <c r="N202" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>287</v>
       </c>
@@ -9356,7 +10607,7 @@
         <v>345</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K203" s="6" t="s">
         <v>348</v>
@@ -9364,8 +10615,14 @@
       <c r="L203" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>288</v>
       </c>
@@ -9394,7 +10651,7 @@
         <v>345</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K204" s="6" t="s">
         <v>348</v>
@@ -9402,8 +10659,14 @@
       <c r="L204" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204">
+        <v>4</v>
+      </c>
+      <c r="N204" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>289</v>
       </c>
@@ -9432,7 +10695,7 @@
         <v>341</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K205" s="6" t="s">
         <v>348</v>
@@ -9440,8 +10703,14 @@
       <c r="L205" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205">
+        <v>4</v>
+      </c>
+      <c r="N205" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>290</v>
       </c>
@@ -9478,8 +10747,14 @@
       <c r="L206" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206">
+        <v>7</v>
+      </c>
+      <c r="N206" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>291</v>
       </c>
@@ -9508,7 +10783,7 @@
         <v>345</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K207" s="6" t="s">
         <v>348</v>
@@ -9516,8 +10791,14 @@
       <c r="L207" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207">
+        <v>5</v>
+      </c>
+      <c r="N207" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>292</v>
       </c>
@@ -9546,7 +10827,7 @@
         <v>345</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K208" s="6" t="s">
         <v>348</v>
@@ -9554,8 +10835,14 @@
       <c r="L208" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>293</v>
       </c>
@@ -9592,8 +10879,14 @@
       <c r="L209" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>294</v>
       </c>
@@ -9622,7 +10915,7 @@
         <v>345</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K210" s="6" t="s">
         <v>348</v>
@@ -9630,8 +10923,14 @@
       <c r="L210" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>295</v>
       </c>
@@ -9660,7 +10959,7 @@
         <v>345</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K211" s="6" t="s">
         <v>348</v>
@@ -9668,8 +10967,14 @@
       <c r="L211" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211">
+        <v>4</v>
+      </c>
+      <c r="N211" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>296</v>
       </c>
@@ -9698,7 +11003,7 @@
         <v>345</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K212" s="6" t="s">
         <v>348</v>
@@ -9706,8 +11011,14 @@
       <c r="L212" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>297</v>
       </c>
@@ -9744,8 +11055,14 @@
       <c r="L213" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213">
+        <v>4</v>
+      </c>
+      <c r="N213" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>298</v>
       </c>
@@ -9782,8 +11099,14 @@
       <c r="L214" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>299</v>
       </c>
@@ -9820,8 +11143,14 @@
       <c r="L215" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215">
+        <v>7</v>
+      </c>
+      <c r="N215" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>300</v>
       </c>
@@ -9850,7 +11179,7 @@
         <v>345</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K216" s="6" t="s">
         <v>348</v>
@@ -9858,8 +11187,14 @@
       <c r="L216" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>301</v>
       </c>
@@ -9888,7 +11223,7 @@
         <v>345</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K217" s="6" t="s">
         <v>348</v>
@@ -9896,8 +11231,14 @@
       <c r="L217" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>302</v>
       </c>
@@ -9926,7 +11267,7 @@
         <v>345</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K218" s="6" t="s">
         <v>348</v>
@@ -9934,8 +11275,14 @@
       <c r="L218" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>303</v>
       </c>
@@ -9964,7 +11311,7 @@
         <v>345</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K219" s="6" t="s">
         <v>349</v>
@@ -9972,8 +11319,14 @@
       <c r="L219" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>304</v>
       </c>
@@ -10002,7 +11355,7 @@
         <v>345</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K220" s="6" t="s">
         <v>348</v>
@@ -10010,8 +11363,14 @@
       <c r="L220" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>305</v>
       </c>
@@ -10048,8 +11407,14 @@
       <c r="L221" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221">
+        <v>3</v>
+      </c>
+      <c r="N221" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>306</v>
       </c>
@@ -10086,8 +11451,14 @@
       <c r="L222" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>307</v>
       </c>
@@ -10116,7 +11487,7 @@
         <v>345</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K223" s="6" t="s">
         <v>349</v>
@@ -10124,8 +11495,14 @@
       <c r="L223" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>308</v>
       </c>
@@ -10154,7 +11531,7 @@
         <v>345</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K224" s="6" t="s">
         <v>348</v>
@@ -10162,8 +11539,14 @@
       <c r="L224" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>309</v>
       </c>
@@ -10192,7 +11575,7 @@
         <v>345</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K225" s="6" t="s">
         <v>348</v>
@@ -10200,8 +11583,14 @@
       <c r="L225" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225">
+        <v>2</v>
+      </c>
+      <c r="N225" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>310</v>
       </c>
@@ -10238,8 +11627,14 @@
       <c r="L226" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226">
+        <v>4</v>
+      </c>
+      <c r="N226" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>311</v>
       </c>
@@ -10276,8 +11671,14 @@
       <c r="L227" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>312</v>
       </c>
@@ -10314,8 +11715,14 @@
       <c r="L228" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228">
+        <v>5</v>
+      </c>
+      <c r="N228" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>313</v>
       </c>
@@ -10352,8 +11759,14 @@
       <c r="L229" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>28</v>
       </c>
@@ -10382,7 +11795,7 @@
         <v>345</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K230" s="6" t="s">
         <v>348</v>
@@ -10390,8 +11803,14 @@
       <c r="L230" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230">
+        <v>4</v>
+      </c>
+      <c r="N230" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>314</v>
       </c>
@@ -10428,8 +11847,14 @@
       <c r="L231" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231">
+        <v>4</v>
+      </c>
+      <c r="N231" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>315</v>
       </c>
@@ -10458,7 +11883,7 @@
         <v>345</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K232" s="6" t="s">
         <v>348</v>
@@ -10466,8 +11891,14 @@
       <c r="L232" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>316</v>
       </c>
@@ -10504,8 +11935,14 @@
       <c r="L233" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233">
+        <v>7</v>
+      </c>
+      <c r="N233" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>317</v>
       </c>
@@ -10542,8 +11979,14 @@
       <c r="L234" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234">
+        <v>7</v>
+      </c>
+      <c r="N234" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>318</v>
       </c>
@@ -10572,7 +12015,7 @@
         <v>345</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K235" s="6" t="s">
         <v>348</v>
@@ -10580,8 +12023,14 @@
       <c r="L235" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235">
+        <v>4</v>
+      </c>
+      <c r="N235" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>29</v>
       </c>
@@ -10618,8 +12067,14 @@
       <c r="L236" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236">
+        <v>7</v>
+      </c>
+      <c r="N236" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>319</v>
       </c>
@@ -10633,7 +12088,7 @@
         <v>6</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>32</v>
@@ -10656,8 +12111,14 @@
       <c r="L237" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237">
+        <v>4</v>
+      </c>
+      <c r="N237" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>320</v>
       </c>
@@ -10671,7 +12132,7 @@
         <v>6</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>17</v>
@@ -10694,8 +12155,14 @@
       <c r="L238" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238">
+        <v>6</v>
+      </c>
+      <c r="N238" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>321</v>
       </c>
@@ -10724,7 +12191,7 @@
         <v>345</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K239" s="6" t="s">
         <v>348</v>
@@ -10732,8 +12199,14 @@
       <c r="L239" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>322</v>
       </c>
@@ -10770,8 +12243,14 @@
       <c r="L240" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240">
+        <v>5</v>
+      </c>
+      <c r="N240" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>323</v>
       </c>
@@ -10808,8 +12287,14 @@
       <c r="L241" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241">
+        <v>7</v>
+      </c>
+      <c r="N241" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>324</v>
       </c>
@@ -10823,7 +12308,7 @@
         <v>6</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>32</v>
@@ -10846,8 +12331,14 @@
       <c r="L242" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242">
+        <v>6</v>
+      </c>
+      <c r="N242" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>325</v>
       </c>
@@ -10876,7 +12367,7 @@
         <v>345</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K243" s="6" t="s">
         <v>348</v>
@@ -10884,8 +12375,14 @@
       <c r="L243" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>326</v>
       </c>
@@ -10922,8 +12419,14 @@
       <c r="L244" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>327</v>
       </c>
@@ -10960,8 +12463,14 @@
       <c r="L245" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245">
+        <v>2</v>
+      </c>
+      <c r="N245" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>328</v>
       </c>
@@ -10998,8 +12507,14 @@
       <c r="L246" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246">
+        <v>7</v>
+      </c>
+      <c r="N246" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>329</v>
       </c>
@@ -11036,8 +12551,14 @@
       <c r="L247" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247">
+        <v>5</v>
+      </c>
+      <c r="N247" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>330</v>
       </c>
@@ -11074,8 +12595,14 @@
       <c r="L248" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248">
+        <v>7</v>
+      </c>
+      <c r="N248" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>331</v>
       </c>
@@ -11104,7 +12631,7 @@
         <v>345</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K249" s="6" t="s">
         <v>348</v>
@@ -11112,8 +12639,14 @@
       <c r="L249" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249">
+        <v>2</v>
+      </c>
+      <c r="N249" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>332</v>
       </c>
@@ -11150,8 +12683,14 @@
       <c r="L250" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>333</v>
       </c>
@@ -11180,7 +12719,7 @@
         <v>345</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K251" s="6" t="s">
         <v>348</v>
@@ -11188,8 +12727,14 @@
       <c r="L251" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251">
+        <v>4</v>
+      </c>
+      <c r="N251" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>334</v>
       </c>
@@ -11218,7 +12763,7 @@
         <v>345</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K252" s="6" t="s">
         <v>348</v>
@@ -11226,8 +12771,14 @@
       <c r="L252" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>335</v>
       </c>
@@ -11256,7 +12807,7 @@
         <v>345</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K253" s="6" t="s">
         <v>348</v>
@@ -11264,8 +12815,14 @@
       <c r="L253" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>336</v>
       </c>
@@ -11302,8 +12859,14 @@
       <c r="L254" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254">
+        <v>7</v>
+      </c>
+      <c r="N254" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>337</v>
       </c>
@@ -11332,7 +12895,7 @@
         <v>345</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K255" s="6" t="s">
         <v>349</v>
@@ -11340,37 +12903,38 @@
       <c r="L255" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="B256" s="17"/>
-      <c r="C256" s="17"/>
-      <c r="D256" s="17"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="18" t="s">
-        <v>380</v>
+      <c r="M255">
+        <v>7</v>
+      </c>
+      <c r="N255" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K255">
-    <sortCondition ref="B2:B255"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L256">
+    <sortCondition ref="A1"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="A256" r:id="rId1" display="Back to Useful Information"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:B51" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FFB20C-FE40-4213-A756-557054E64C4F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11500,7 +13064,7 @@
         <v>362</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11520,7 +13084,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F405">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F405">
     <sortCondition descending="1" ref="B2:B405"/>
     <sortCondition descending="1" ref="C2:C405"/>
   </sortState>
